--- a/Exercise 1/Results/2000x2000.xlsx
+++ b/Exercise 1/Results/2000x2000.xlsx
@@ -1857,7 +1857,7 @@
   <dimension ref="A1:V103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
